--- a/teaching/traditional_assets/database/data/romania/romania_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/romania/romania_brokerage_investment_banking.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.155</v>
+        <v>-0.27</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,82 +606,85 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.42</v>
+        <v>-1.82</v>
       </c>
       <c r="L2">
-        <v>0.3480392156862745</v>
+        <v>-1.913774973711882</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.258</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03712230215827338</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0.1417582417582418</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.258</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.03712230215827338</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0.1417582417582418</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>0.439</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>0.06542473919523099</v>
+        <v>0.2733812949640287</v>
       </c>
       <c r="W2">
-        <v>0.09342105263157895</v>
+        <v>-0.1166666666666667</v>
       </c>
       <c r="X2">
-        <v>0.05613910196035181</v>
+        <v>0.03902470745751097</v>
       </c>
       <c r="Y2">
-        <v>0.03728195067122714</v>
+        <v>-0.1556913741241776</v>
       </c>
       <c r="Z2">
-        <v>0.2827050997782705</v>
+        <v>0.07342495367510808</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05482909994912689</v>
+        <v>0.03872579729654586</v>
       </c>
       <c r="AC2">
-        <v>-0.05482909994912689</v>
+        <v>-0.03872579729654586</v>
       </c>
       <c r="AD2">
-        <v>1.18</v>
+        <v>0.332</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.18</v>
+        <v>0.332</v>
       </c>
       <c r="AG2">
-        <v>0.7409999999999999</v>
+        <v>-1.568</v>
       </c>
       <c r="AH2">
-        <v>0.1495564005069709</v>
+        <v>0.04559187036528427</v>
       </c>
       <c r="AI2">
-        <v>0.07074340527577938</v>
+        <v>0.02400231347599769</v>
       </c>
       <c r="AJ2">
-        <v>0.09944973829016239</v>
+        <v>-0.291341508732813</v>
       </c>
       <c r="AK2">
-        <v>0.04562526937996428</v>
+        <v>-0.1314113308749581</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -707,7 +710,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.155</v>
+        <v>-0.27</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -722,82 +725,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.42</v>
+        <v>-1.82</v>
       </c>
       <c r="L3">
-        <v>0.3480392156862745</v>
+        <v>-1.913774973711882</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.258</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.03712230215827338</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>-0.1417582417582418</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.258</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.03712230215827338</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>-0.1417582417582418</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>0.439</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>0.06542473919523099</v>
+        <v>0.2733812949640287</v>
       </c>
       <c r="W3">
-        <v>0.09342105263157895</v>
+        <v>-0.1166666666666667</v>
       </c>
       <c r="X3">
-        <v>0.05613910196035181</v>
+        <v>0.03902470745751097</v>
       </c>
       <c r="Y3">
-        <v>0.03728195067122714</v>
+        <v>-0.1556913741241776</v>
       </c>
       <c r="Z3">
-        <v>0.2827050997782705</v>
+        <v>0.07342495367510808</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05482909994912689</v>
+        <v>0.03872579729654586</v>
       </c>
       <c r="AC3">
-        <v>-0.05482909994912689</v>
+        <v>-0.03872579729654586</v>
       </c>
       <c r="AD3">
-        <v>1.18</v>
+        <v>0.332</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.18</v>
+        <v>0.332</v>
       </c>
       <c r="AG3">
-        <v>0.7409999999999999</v>
+        <v>-1.568</v>
       </c>
       <c r="AH3">
-        <v>0.1495564005069709</v>
+        <v>0.04559187036528427</v>
       </c>
       <c r="AI3">
-        <v>0.07074340527577938</v>
+        <v>0.02400231347599769</v>
       </c>
       <c r="AJ3">
-        <v>0.09944973829016239</v>
+        <v>-0.291341508732813</v>
       </c>
       <c r="AK3">
-        <v>0.04562526937996428</v>
+        <v>-0.1314113308749581</v>
       </c>
       <c r="AL3">
         <v>0</v>
